--- a/data/pca/factorExposure/factorExposure_2011-07-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-07-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.02377984700005817</v>
+        <v>-0.01589309158719796</v>
       </c>
       <c r="C2">
-        <v>-0.001289620551385388</v>
+        <v>0.0009190714010689449</v>
       </c>
       <c r="D2">
-        <v>-0.05958530643212279</v>
+        <v>0.03325070722863213</v>
       </c>
       <c r="E2">
-        <v>-0.02125746789567008</v>
+        <v>-0.01441685384072155</v>
       </c>
       <c r="F2">
-        <v>0.009425057926541788</v>
+        <v>0.01530352816575398</v>
       </c>
       <c r="G2">
-        <v>-0.04821944555102251</v>
+        <v>0.03177295461108386</v>
       </c>
       <c r="H2">
-        <v>-0.03000818041863082</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.02033058652746692</v>
+      </c>
+      <c r="I2">
+        <v>-0.03207132797680987</v>
+      </c>
+      <c r="J2">
+        <v>-0.06976430827560411</v>
+      </c>
+      <c r="K2">
+        <v>-0.03204299739196411</v>
+      </c>
+      <c r="L2">
+        <v>-0.0428695012173396</v>
+      </c>
+      <c r="M2">
+        <v>0.05647810198306181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.06611752269605789</v>
+        <v>-0.09604204711374983</v>
       </c>
       <c r="C4">
-        <v>-0.07061712510653571</v>
+        <v>-0.07450516924162354</v>
       </c>
       <c r="D4">
-        <v>-0.0270882947059051</v>
+        <v>0.01723353793433377</v>
       </c>
       <c r="E4">
-        <v>-0.02413285418508629</v>
+        <v>-0.06398254329240025</v>
       </c>
       <c r="F4">
-        <v>-0.04256913534667089</v>
+        <v>0.06803061534278278</v>
       </c>
       <c r="G4">
-        <v>-0.01704414399341755</v>
+        <v>0.02092699655741428</v>
       </c>
       <c r="H4">
-        <v>0.02926884977222812</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.09739836746258171</v>
+      </c>
+      <c r="I4">
+        <v>0.001073417071692482</v>
+      </c>
+      <c r="J4">
+        <v>0.04509381175980834</v>
+      </c>
+      <c r="K4">
+        <v>0.051186649394364</v>
+      </c>
+      <c r="L4">
+        <v>-0.03505668536377716</v>
+      </c>
+      <c r="M4">
+        <v>-0.005843149081243078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1270105650628088</v>
+        <v>-0.1306983421204822</v>
       </c>
       <c r="C6">
-        <v>-0.05184044374261133</v>
+        <v>-0.04859577666091359</v>
       </c>
       <c r="D6">
-        <v>-0.06593733562700013</v>
+        <v>0.03077838085544591</v>
       </c>
       <c r="E6">
-        <v>-0.06455961168243063</v>
+        <v>-0.002565883755550139</v>
       </c>
       <c r="F6">
-        <v>-0.05829716341079886</v>
+        <v>0.06074085482978381</v>
       </c>
       <c r="G6">
-        <v>0.07190025374318956</v>
+        <v>-0.1581946606440364</v>
       </c>
       <c r="H6">
-        <v>-0.1181250054593185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.1243837309259028</v>
+      </c>
+      <c r="I6">
+        <v>-0.3721427707604261</v>
+      </c>
+      <c r="J6">
+        <v>0.2237390345756132</v>
+      </c>
+      <c r="K6">
+        <v>0.05646543394853407</v>
+      </c>
+      <c r="L6">
+        <v>0.1124344674852036</v>
+      </c>
+      <c r="M6">
+        <v>-0.02417253859633642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.06670631062017489</v>
+        <v>-0.06705735265014484</v>
       </c>
       <c r="C7">
-        <v>-0.0526531843351009</v>
+        <v>-0.07063519997268507</v>
       </c>
       <c r="D7">
-        <v>-0.05793938996863005</v>
+        <v>0.03754984088633773</v>
       </c>
       <c r="E7">
-        <v>-0.01934427226673985</v>
+        <v>-0.02527033147173193</v>
       </c>
       <c r="F7">
-        <v>-0.04195639503373217</v>
+        <v>0.006784216958924091</v>
       </c>
       <c r="G7">
-        <v>0.03559532111894811</v>
+        <v>-0.001880966207720439</v>
       </c>
       <c r="H7">
-        <v>0.001877484292628116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.05022655712650969</v>
+      </c>
+      <c r="I7">
+        <v>0.07345742058040981</v>
+      </c>
+      <c r="J7">
+        <v>-0.01789127899789008</v>
+      </c>
+      <c r="K7">
+        <v>0.02616710064173716</v>
+      </c>
+      <c r="L7">
+        <v>-0.04797859289127094</v>
+      </c>
+      <c r="M7">
+        <v>-0.09046805863159157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.01981559360535321</v>
+        <v>-0.03408566284122819</v>
       </c>
       <c r="C8">
-        <v>-0.01611997943381322</v>
+        <v>-0.008197413640966046</v>
       </c>
       <c r="D8">
-        <v>-0.0387251683218881</v>
+        <v>0.02598761585417277</v>
       </c>
       <c r="E8">
-        <v>-0.07629871509060686</v>
+        <v>-0.07126842691044208</v>
       </c>
       <c r="F8">
-        <v>-0.005548745229329287</v>
+        <v>0.07946223899145866</v>
       </c>
       <c r="G8">
-        <v>0.007646388710075229</v>
+        <v>-0.00503952091586684</v>
       </c>
       <c r="H8">
-        <v>-0.03073701990831789</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.08700935979925924</v>
+      </c>
+      <c r="I8">
+        <v>0.01336788134017551</v>
+      </c>
+      <c r="J8">
+        <v>0.04318315652951168</v>
+      </c>
+      <c r="K8">
+        <v>0.05306872194136655</v>
+      </c>
+      <c r="L8">
+        <v>-0.0006415610534060376</v>
+      </c>
+      <c r="M8">
+        <v>0.06912853865851584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.06930290661489412</v>
+        <v>-0.08234438956866233</v>
       </c>
       <c r="C9">
-        <v>-0.08184365569263419</v>
+        <v>-0.06834144190796249</v>
       </c>
       <c r="D9">
-        <v>-0.03456014511797809</v>
+        <v>0.01400748819990469</v>
       </c>
       <c r="E9">
-        <v>-0.02649125627302793</v>
+        <v>-0.04449877764206021</v>
       </c>
       <c r="F9">
-        <v>-0.02488125612952945</v>
+        <v>0.07006834049276438</v>
       </c>
       <c r="G9">
-        <v>-0.02275244936203222</v>
+        <v>0.01942619696299403</v>
       </c>
       <c r="H9">
-        <v>0.0244846074352541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.1029032055122004</v>
+      </c>
+      <c r="I9">
+        <v>0.006942626259992704</v>
+      </c>
+      <c r="J9">
+        <v>0.01477191047388537</v>
+      </c>
+      <c r="K9">
+        <v>0.02770123275401624</v>
+      </c>
+      <c r="L9">
+        <v>-0.006758045364135387</v>
+      </c>
+      <c r="M9">
+        <v>-0.01020360959755935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.05826596774236351</v>
+        <v>-0.1080967031123335</v>
       </c>
       <c r="C10">
-        <v>0.1338814547268138</v>
+        <v>0.1663052681483284</v>
       </c>
       <c r="D10">
-        <v>-0.05727011370345235</v>
+        <v>0.03228968651999941</v>
       </c>
       <c r="E10">
-        <v>-0.02615827442963515</v>
+        <v>-0.0375236601163182</v>
       </c>
       <c r="F10">
-        <v>-0.01889268652181996</v>
+        <v>-0.03662966556388542</v>
       </c>
       <c r="G10">
-        <v>0.05073030440321633</v>
+        <v>-0.01962892530208323</v>
       </c>
       <c r="H10">
-        <v>-0.045568280994375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.005725163668831919</v>
+      </c>
+      <c r="I10">
+        <v>0.03071177927433632</v>
+      </c>
+      <c r="J10">
+        <v>-0.04597497601258062</v>
+      </c>
+      <c r="K10">
+        <v>0.001634674825511737</v>
+      </c>
+      <c r="L10">
+        <v>0.005015591978448719</v>
+      </c>
+      <c r="M10">
+        <v>-0.09371879794942889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.06517693241133024</v>
+        <v>-0.06706671444711777</v>
       </c>
       <c r="C11">
-        <v>-0.0892048405600821</v>
+        <v>-0.06929862772481653</v>
       </c>
       <c r="D11">
-        <v>-0.0438240485519049</v>
+        <v>0.02233004776157154</v>
       </c>
       <c r="E11">
-        <v>-0.00682539299453879</v>
+        <v>-0.02023133636331513</v>
       </c>
       <c r="F11">
-        <v>0.02754070691179689</v>
+        <v>0.08380159328285622</v>
       </c>
       <c r="G11">
-        <v>-0.02781005985054448</v>
+        <v>0.01971466701172179</v>
       </c>
       <c r="H11">
-        <v>0.02670689722235204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.06797398028469707</v>
+      </c>
+      <c r="I11">
+        <v>0.0740201880159559</v>
+      </c>
+      <c r="J11">
+        <v>-0.08403060275287022</v>
+      </c>
+      <c r="K11">
+        <v>-0.01997635028247128</v>
+      </c>
+      <c r="L11">
+        <v>0.04908423266571598</v>
+      </c>
+      <c r="M11">
+        <v>-0.02901974490221056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.05908052498227803</v>
+        <v>-0.06725702712937016</v>
       </c>
       <c r="C12">
-        <v>-0.05321707346570669</v>
+        <v>-0.05715205847452145</v>
       </c>
       <c r="D12">
-        <v>-0.02021437173995672</v>
+        <v>0.007962451655241473</v>
       </c>
       <c r="E12">
-        <v>-0.01129853441828559</v>
+        <v>-0.0252159157132376</v>
       </c>
       <c r="F12">
-        <v>-0.01406193053492358</v>
+        <v>0.08002084543936536</v>
       </c>
       <c r="G12">
-        <v>0.0114884916279152</v>
+        <v>0.01531031940752534</v>
       </c>
       <c r="H12">
-        <v>0.03331156213596428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.07236711870570586</v>
+      </c>
+      <c r="I12">
+        <v>0.06395079636360163</v>
+      </c>
+      <c r="J12">
+        <v>-0.08707882357557135</v>
+      </c>
+      <c r="K12">
+        <v>0.04433232138269078</v>
+      </c>
+      <c r="L12">
+        <v>0.05917723681390203</v>
+      </c>
+      <c r="M12">
+        <v>-0.01279982272064283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.05366648174125898</v>
+        <v>-0.05086466890672649</v>
       </c>
       <c r="C13">
-        <v>-0.01964687818094903</v>
+        <v>-0.0362857721162092</v>
       </c>
       <c r="D13">
-        <v>-0.008175786915496832</v>
+        <v>0.001731130044496361</v>
       </c>
       <c r="E13">
-        <v>-0.02360825634259247</v>
+        <v>-0.03374007464686903</v>
       </c>
       <c r="F13">
-        <v>0.01108165116078724</v>
+        <v>0.0323136929308168</v>
       </c>
       <c r="G13">
-        <v>-0.02509055823603155</v>
+        <v>0.02303065137207595</v>
       </c>
       <c r="H13">
-        <v>0.04244133114630583</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.03742413844808485</v>
+      </c>
+      <c r="I13">
+        <v>0.03621937945130808</v>
+      </c>
+      <c r="J13">
+        <v>0.04201389701090263</v>
+      </c>
+      <c r="K13">
+        <v>0.06128924006486807</v>
+      </c>
+      <c r="L13">
+        <v>-0.006871192285332722</v>
+      </c>
+      <c r="M13">
+        <v>0.01773593993169627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.043032149979974</v>
+        <v>-0.04573213639052185</v>
       </c>
       <c r="C14">
-        <v>-0.01956345238052022</v>
+        <v>-0.02660642350975729</v>
       </c>
       <c r="D14">
-        <v>-0.01793750190960715</v>
+        <v>0.01218711512306696</v>
       </c>
       <c r="E14">
-        <v>-0.01137204172861266</v>
+        <v>-0.0176142393256354</v>
       </c>
       <c r="F14">
-        <v>-0.03810406500551863</v>
+        <v>0.04824435804194459</v>
       </c>
       <c r="G14">
-        <v>-0.003334264292257881</v>
+        <v>0.04068295320630009</v>
       </c>
       <c r="H14">
-        <v>-0.04102470914454191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.07379003675852239</v>
+      </c>
+      <c r="I14">
+        <v>0.009172101356286695</v>
+      </c>
+      <c r="J14">
+        <v>0.03827234967253832</v>
+      </c>
+      <c r="K14">
+        <v>0.00874674538559604</v>
+      </c>
+      <c r="L14">
+        <v>-0.01486535970556635</v>
+      </c>
+      <c r="M14">
+        <v>-0.03531753650141735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03754018090959035</v>
+        <v>-0.03484624223878557</v>
       </c>
       <c r="C15">
-        <v>0.003387219676916949</v>
+        <v>-0.01405025611096499</v>
       </c>
       <c r="D15">
-        <v>0.007043607841250757</v>
+        <v>-0.01324951071271386</v>
       </c>
       <c r="E15">
-        <v>-0.02583974054022257</v>
+        <v>-0.01440602236802355</v>
       </c>
       <c r="F15">
-        <v>-0.02627901122608798</v>
+        <v>0.02267313959224018</v>
       </c>
       <c r="G15">
-        <v>-0.002138463771427455</v>
+        <v>-0.003304712042760434</v>
       </c>
       <c r="H15">
-        <v>0.01849998785930285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.04239961211276852</v>
+      </c>
+      <c r="I15">
+        <v>0.01828867717916099</v>
+      </c>
+      <c r="J15">
+        <v>0.0585857287629661</v>
+      </c>
+      <c r="K15">
+        <v>0.02378210736267551</v>
+      </c>
+      <c r="L15">
+        <v>-0.0129145572145628</v>
+      </c>
+      <c r="M15">
+        <v>-0.01171874713707099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.04834772903819153</v>
+        <v>-0.06775345725971908</v>
       </c>
       <c r="C16">
-        <v>-0.07896244909258177</v>
+        <v>-0.07476169539108074</v>
       </c>
       <c r="D16">
-        <v>-0.02422552611362645</v>
+        <v>0.01205144925450547</v>
       </c>
       <c r="E16">
-        <v>-0.02362214457457885</v>
+        <v>-0.03598344983631629</v>
       </c>
       <c r="F16">
-        <v>-0.0239768068259932</v>
+        <v>0.06775086586057781</v>
       </c>
       <c r="G16">
-        <v>-0.02482278473859368</v>
+        <v>0.01573824350921954</v>
       </c>
       <c r="H16">
-        <v>0.01193804209764238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.084466262202498</v>
+      </c>
+      <c r="I16">
+        <v>0.07008500179224478</v>
+      </c>
+      <c r="J16">
+        <v>-0.07016894209571928</v>
+      </c>
+      <c r="K16">
+        <v>-0.006535230531148472</v>
+      </c>
+      <c r="L16">
+        <v>0.0282663011724277</v>
+      </c>
+      <c r="M16">
+        <v>-0.01649316146852341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.0402643745597745</v>
+        <v>-0.04314530528984125</v>
       </c>
       <c r="C20">
-        <v>-0.04519274312378111</v>
+        <v>-0.03702089621987568</v>
       </c>
       <c r="D20">
-        <v>-0.0293799080670627</v>
+        <v>0.02282809330586251</v>
       </c>
       <c r="E20">
-        <v>-0.0249409590676942</v>
+        <v>-0.01121230926491156</v>
       </c>
       <c r="F20">
-        <v>-0.0182382960518791</v>
+        <v>0.06149346976846901</v>
       </c>
       <c r="G20">
-        <v>-0.02371382020048637</v>
+        <v>0.03159383146663896</v>
       </c>
       <c r="H20">
-        <v>0.03094219469239672</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.09003273768617968</v>
+      </c>
+      <c r="I20">
+        <v>0.04058235883488259</v>
+      </c>
+      <c r="J20">
+        <v>-0.03846532037229831</v>
+      </c>
+      <c r="K20">
+        <v>0.0632827322769042</v>
+      </c>
+      <c r="L20">
+        <v>0.004755349012159645</v>
+      </c>
+      <c r="M20">
+        <v>-0.01195608848856239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.0115664451708957</v>
+        <v>-0.02441016610920767</v>
       </c>
       <c r="C21">
-        <v>-0.01406480263032564</v>
+        <v>-0.01378735707949241</v>
       </c>
       <c r="D21">
-        <v>0.01278118443193571</v>
+        <v>-0.00919695740747409</v>
       </c>
       <c r="E21">
-        <v>-0.07880195001248107</v>
+        <v>-0.04147816349706457</v>
       </c>
       <c r="F21">
-        <v>-0.004444843874909702</v>
+        <v>0.03485611266551743</v>
       </c>
       <c r="G21">
-        <v>0.08804286733021476</v>
+        <v>-0.08210442192125258</v>
       </c>
       <c r="H21">
-        <v>0.02301093678335126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.05763114083101852</v>
+      </c>
+      <c r="I21">
+        <v>0.03394560893717518</v>
+      </c>
+      <c r="J21">
+        <v>0.07863305352320187</v>
+      </c>
+      <c r="K21">
+        <v>0.06122913938597885</v>
+      </c>
+      <c r="L21">
+        <v>0.03102944121116467</v>
+      </c>
+      <c r="M21">
+        <v>-0.104475915870692</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.03223154502043381</v>
+        <v>-0.05245610652752018</v>
       </c>
       <c r="C22">
-        <v>-0.08297408431606598</v>
+        <v>-0.07069929846141212</v>
       </c>
       <c r="D22">
-        <v>0.1111168780284957</v>
+        <v>-0.2751003526169459</v>
       </c>
       <c r="E22">
-        <v>-0.3950022926983237</v>
+        <v>-0.5230850677031382</v>
       </c>
       <c r="F22">
-        <v>-0.2262190649798195</v>
+        <v>-0.2898481903606009</v>
       </c>
       <c r="G22">
-        <v>-0.02824552114027131</v>
+        <v>-0.02526129228043038</v>
       </c>
       <c r="H22">
-        <v>0.307739937019912</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.117538331101518</v>
+      </c>
+      <c r="I22">
+        <v>-0.07884246372280003</v>
+      </c>
+      <c r="J22">
+        <v>-0.01018752237221802</v>
+      </c>
+      <c r="K22">
+        <v>0.01832818061364644</v>
+      </c>
+      <c r="L22">
+        <v>-0.1010370018485458</v>
+      </c>
+      <c r="M22">
+        <v>-0.04328063893596613</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.03310401550685253</v>
+        <v>-0.05318154967500807</v>
       </c>
       <c r="C23">
-        <v>-0.08183963844416429</v>
+        <v>-0.07095433932561644</v>
       </c>
       <c r="D23">
-        <v>0.1105934870621386</v>
+        <v>-0.2756791081496409</v>
       </c>
       <c r="E23">
-        <v>-0.3967319236125384</v>
+        <v>-0.526269632018762</v>
       </c>
       <c r="F23">
-        <v>-0.2242278035667032</v>
+        <v>-0.2857284226502467</v>
       </c>
       <c r="G23">
-        <v>-0.02697264608346418</v>
+        <v>-0.02481913480735764</v>
       </c>
       <c r="H23">
-        <v>0.3037315846364678</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.1170454250585946</v>
+      </c>
+      <c r="I23">
+        <v>-0.08394293594466477</v>
+      </c>
+      <c r="J23">
+        <v>-0.008663444252750155</v>
+      </c>
+      <c r="K23">
+        <v>0.01634942995197999</v>
+      </c>
+      <c r="L23">
+        <v>-0.09970032312592547</v>
+      </c>
+      <c r="M23">
+        <v>-0.04185028447905932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.07093451783025732</v>
+        <v>-0.07440437852895954</v>
       </c>
       <c r="C24">
-        <v>-0.08146415386089544</v>
+        <v>-0.07410884405508267</v>
       </c>
       <c r="D24">
-        <v>-0.04192987140911316</v>
+        <v>0.01148405922810589</v>
       </c>
       <c r="E24">
-        <v>-0.04677303666890559</v>
+        <v>-0.04170282267579146</v>
       </c>
       <c r="F24">
-        <v>0.009098143381239005</v>
+        <v>0.08114217416933009</v>
       </c>
       <c r="G24">
-        <v>-0.01386367328846975</v>
+        <v>0.01177794582301364</v>
       </c>
       <c r="H24">
-        <v>0.01107965267653638</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.07684739361128312</v>
+      </c>
+      <c r="I24">
+        <v>0.04535412769656506</v>
+      </c>
+      <c r="J24">
+        <v>-0.0750362139227117</v>
+      </c>
+      <c r="K24">
+        <v>0.006602152611625852</v>
+      </c>
+      <c r="L24">
+        <v>0.04426490560163951</v>
+      </c>
+      <c r="M24">
+        <v>-0.03005700774041176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.06329393061384166</v>
+        <v>-0.07090310514755269</v>
       </c>
       <c r="C25">
-        <v>-0.04254987328780532</v>
+        <v>-0.04593162246291758</v>
       </c>
       <c r="D25">
-        <v>-0.0425334170608315</v>
+        <v>0.01891772361109305</v>
       </c>
       <c r="E25">
-        <v>-0.04366834626038416</v>
+        <v>-0.03457385503015003</v>
       </c>
       <c r="F25">
-        <v>-0.01135774119796513</v>
+        <v>0.07877631856676494</v>
       </c>
       <c r="G25">
-        <v>-0.03436797303683341</v>
+        <v>0.03680741744805072</v>
       </c>
       <c r="H25">
-        <v>-0.01005536249625606</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.0909419677171362</v>
+      </c>
+      <c r="I25">
+        <v>0.03761431897125756</v>
+      </c>
+      <c r="J25">
+        <v>-0.09615691508167183</v>
+      </c>
+      <c r="K25">
+        <v>-0.01182758842627479</v>
+      </c>
+      <c r="L25">
+        <v>0.04465883866758825</v>
+      </c>
+      <c r="M25">
+        <v>-0.01392472973963164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.03875844355837711</v>
+        <v>-0.04126909117054025</v>
       </c>
       <c r="C26">
-        <v>-0.02672653227655407</v>
+        <v>-0.02505336695116622</v>
       </c>
       <c r="D26">
-        <v>-0.03775874328540709</v>
+        <v>-0.00747772057610386</v>
       </c>
       <c r="E26">
-        <v>0.0001405807407141048</v>
+        <v>-0.02775624042924622</v>
       </c>
       <c r="F26">
-        <v>-0.0333229520697232</v>
+        <v>0.03186161945249147</v>
       </c>
       <c r="G26">
-        <v>0.004942114282304392</v>
+        <v>0.006468564355410327</v>
       </c>
       <c r="H26">
-        <v>0.03620074668013971</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.05582396778527512</v>
+      </c>
+      <c r="I26">
+        <v>0.06096205874014632</v>
+      </c>
+      <c r="J26">
+        <v>0.1036701706528716</v>
+      </c>
+      <c r="K26">
+        <v>0.04495128053029956</v>
+      </c>
+      <c r="L26">
+        <v>-0.03291395061883609</v>
+      </c>
+      <c r="M26">
+        <v>-0.1011356333369611</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.1164640832292023</v>
+        <v>-0.1404901575691412</v>
       </c>
       <c r="C28">
-        <v>0.2920564058682916</v>
+        <v>0.2870124808857519</v>
       </c>
       <c r="D28">
-        <v>-0.0519758269541204</v>
+        <v>0.01869738769551316</v>
       </c>
       <c r="E28">
-        <v>-0.00230912889356184</v>
+        <v>-0.02899537756276314</v>
       </c>
       <c r="F28">
-        <v>-0.03655227130804273</v>
+        <v>-0.009530039748192633</v>
       </c>
       <c r="G28">
-        <v>0.0659524868369411</v>
+        <v>-0.03197033309537131</v>
       </c>
       <c r="H28">
-        <v>0.003212261530320711</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.009765887691207642</v>
+      </c>
+      <c r="I28">
+        <v>0.02035054269543137</v>
+      </c>
+      <c r="J28">
+        <v>0.04767142348991473</v>
+      </c>
+      <c r="K28">
+        <v>-0.001710200803185535</v>
+      </c>
+      <c r="L28">
+        <v>-0.01608055434204524</v>
+      </c>
+      <c r="M28">
+        <v>0.04353976657219821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.04747092806001883</v>
+        <v>-0.04507775984164347</v>
       </c>
       <c r="C29">
-        <v>-0.007072698073097768</v>
+        <v>-0.02204161168825972</v>
       </c>
       <c r="D29">
-        <v>-0.01104158495170677</v>
+        <v>0.01018537053244</v>
       </c>
       <c r="E29">
-        <v>-0.02960379345257685</v>
+        <v>-0.02526092192478737</v>
       </c>
       <c r="F29">
-        <v>-0.03905181539756844</v>
+        <v>0.0396386447789345</v>
       </c>
       <c r="G29">
-        <v>-0.01696974907495175</v>
+        <v>0.0461789746079832</v>
       </c>
       <c r="H29">
-        <v>-0.009790080117233237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.06149459267329173</v>
+      </c>
+      <c r="I29">
+        <v>0.005598403286398814</v>
+      </c>
+      <c r="J29">
+        <v>0.02021423078413906</v>
+      </c>
+      <c r="K29">
+        <v>0.008594704512181695</v>
+      </c>
+      <c r="L29">
+        <v>-0.02026680486839852</v>
+      </c>
+      <c r="M29">
+        <v>-0.02240805937960872</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1226812880787467</v>
+        <v>-0.1034075146449699</v>
       </c>
       <c r="C30">
-        <v>-0.08684026346762369</v>
+        <v>-0.06639191429480125</v>
       </c>
       <c r="D30">
-        <v>-0.07398965820484552</v>
+        <v>0.02047393584967958</v>
       </c>
       <c r="E30">
-        <v>-0.02440515716169279</v>
+        <v>-0.08005808855032989</v>
       </c>
       <c r="F30">
-        <v>-0.06109165504980841</v>
+        <v>0.1297545110472506</v>
       </c>
       <c r="G30">
-        <v>-0.000814468653130209</v>
+        <v>-0.02980327403525031</v>
       </c>
       <c r="H30">
-        <v>0.02316683171580359</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1915243515287033</v>
+      </c>
+      <c r="I30">
+        <v>0.01784336692832439</v>
+      </c>
+      <c r="J30">
+        <v>-0.06206285656868725</v>
+      </c>
+      <c r="K30">
+        <v>0.256821793573467</v>
+      </c>
+      <c r="L30">
+        <v>-0.308362885057903</v>
+      </c>
+      <c r="M30">
+        <v>0.1643303616678717</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.04789431029206829</v>
+        <v>-0.03460053317796954</v>
       </c>
       <c r="C31">
-        <v>-0.02259202445339996</v>
+        <v>-0.04302965423147524</v>
       </c>
       <c r="D31">
-        <v>-0.002458118932838514</v>
+        <v>-0.01135041039608265</v>
       </c>
       <c r="E31">
-        <v>0.008456591720704633</v>
+        <v>-0.005494635512580281</v>
       </c>
       <c r="F31">
-        <v>-0.0203191435237132</v>
+        <v>0.01027111917403677</v>
       </c>
       <c r="G31">
-        <v>-0.02589354663556278</v>
+        <v>0.05239537410867822</v>
       </c>
       <c r="H31">
-        <v>0.03657036027751217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.03499242157569189</v>
+      </c>
+      <c r="I31">
+        <v>0.009624437352477739</v>
+      </c>
+      <c r="J31">
+        <v>0.00382594314351246</v>
+      </c>
+      <c r="K31">
+        <v>0.02975689069521098</v>
+      </c>
+      <c r="L31">
+        <v>0.01947927827466776</v>
+      </c>
+      <c r="M31">
+        <v>0.01696978896212826</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.02467706036999478</v>
+        <v>-0.04519507292831972</v>
       </c>
       <c r="C32">
-        <v>0.001391402463543068</v>
+        <v>0.002719438289619615</v>
       </c>
       <c r="D32">
-        <v>0.03643944674295402</v>
+        <v>-0.02656379553140852</v>
       </c>
       <c r="E32">
-        <v>-0.0767500982486692</v>
+        <v>-0.05742347966987373</v>
       </c>
       <c r="F32">
-        <v>-0.0227736314176058</v>
+        <v>0.03264262677115472</v>
       </c>
       <c r="G32">
-        <v>-0.01363320732207061</v>
+        <v>-0.001957014171662181</v>
       </c>
       <c r="H32">
-        <v>0.07556605518053117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.01276151763823802</v>
+      </c>
+      <c r="I32">
+        <v>0.06947925885800939</v>
+      </c>
+      <c r="J32">
+        <v>0.0789923184700454</v>
+      </c>
+      <c r="K32">
+        <v>0.04493528929434226</v>
+      </c>
+      <c r="L32">
+        <v>-0.09116880466635863</v>
+      </c>
+      <c r="M32">
+        <v>0.1306365859664737</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.09601168573187246</v>
+        <v>-0.097382867264683</v>
       </c>
       <c r="C33">
-        <v>-0.05988398235320454</v>
+        <v>-0.06671935460424275</v>
       </c>
       <c r="D33">
-        <v>-0.01199526601312468</v>
+        <v>-0.02211816024342076</v>
       </c>
       <c r="E33">
-        <v>-0.001027824395447053</v>
+        <v>-0.01554148061175479</v>
       </c>
       <c r="F33">
-        <v>-0.01675761906687268</v>
+        <v>0.05201965326645731</v>
       </c>
       <c r="G33">
-        <v>-0.03388049793715286</v>
+        <v>0.05007162744892142</v>
       </c>
       <c r="H33">
-        <v>0.03409538958038527</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.05954337812675254</v>
+      </c>
+      <c r="I33">
+        <v>0.01114038860310971</v>
+      </c>
+      <c r="J33">
+        <v>0.02571135908985376</v>
+      </c>
+      <c r="K33">
+        <v>0.03668437193376708</v>
+      </c>
+      <c r="L33">
+        <v>0.01383548831264699</v>
+      </c>
+      <c r="M33">
+        <v>0.01245182617757819</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05402832391048439</v>
+        <v>-0.06202979929721442</v>
       </c>
       <c r="C34">
-        <v>-0.07462860026576404</v>
+        <v>-0.06006305276953054</v>
       </c>
       <c r="D34">
-        <v>-0.02551694146860819</v>
+        <v>0.009812679742504831</v>
       </c>
       <c r="E34">
-        <v>-0.05004816162739162</v>
+        <v>-0.02369843079478278</v>
       </c>
       <c r="F34">
-        <v>-0.009834408816482574</v>
+        <v>0.07202549242535311</v>
       </c>
       <c r="G34">
-        <v>-0.02032736022976327</v>
+        <v>0.03271795814625672</v>
       </c>
       <c r="H34">
-        <v>0.006085949651039644</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.07515279358335812</v>
+      </c>
+      <c r="I34">
+        <v>0.0394024385646194</v>
+      </c>
+      <c r="J34">
+        <v>-0.06939400812772947</v>
+      </c>
+      <c r="K34">
+        <v>-0.0009093098167863682</v>
+      </c>
+      <c r="L34">
+        <v>0.05442845182582292</v>
+      </c>
+      <c r="M34">
+        <v>-0.0329255855217028</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.03836012643183181</v>
+        <v>-0.03030255007451393</v>
       </c>
       <c r="C35">
-        <v>-0.01895523199160469</v>
+        <v>-0.02348328403242128</v>
       </c>
       <c r="D35">
-        <v>-0.006229205599406882</v>
+        <v>-0.002665060343137395</v>
       </c>
       <c r="E35">
-        <v>-0.01743790475009382</v>
+        <v>-0.001988670875519154</v>
       </c>
       <c r="F35">
-        <v>-0.03978644948776904</v>
+        <v>0.01040120083942758</v>
       </c>
       <c r="G35">
-        <v>-0.03263029342326518</v>
+        <v>0.0233480198089744</v>
       </c>
       <c r="H35">
-        <v>0.04866139731152755</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.06439546237493556</v>
+      </c>
+      <c r="I35">
+        <v>0.03929119600194696</v>
+      </c>
+      <c r="J35">
+        <v>-0.03190288523976435</v>
+      </c>
+      <c r="K35">
+        <v>0.02670655841758239</v>
+      </c>
+      <c r="L35">
+        <v>-0.0186122524343635</v>
+      </c>
+      <c r="M35">
+        <v>-0.006798824854706357</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.02827987128496323</v>
+        <v>-0.0304365009922833</v>
       </c>
       <c r="C36">
-        <v>-0.0182084137710027</v>
+        <v>-0.0164188899960957</v>
       </c>
       <c r="D36">
-        <v>-0.02576564214782457</v>
+        <v>0.003221895925049038</v>
       </c>
       <c r="E36">
-        <v>-0.02694085323784282</v>
+        <v>-0.03249253599912436</v>
       </c>
       <c r="F36">
-        <v>-0.01390732908409128</v>
+        <v>0.04010590299035291</v>
       </c>
       <c r="G36">
-        <v>-0.0181598975338851</v>
+        <v>0.02216481245831303</v>
       </c>
       <c r="H36">
-        <v>0.015919101743055</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.05922721750272943</v>
+      </c>
+      <c r="I36">
+        <v>0.0154840715520968</v>
+      </c>
+      <c r="J36">
+        <v>0.01572194812020277</v>
+      </c>
+      <c r="K36">
+        <v>0.03388173706140839</v>
+      </c>
+      <c r="L36">
+        <v>0.01669449768675746</v>
+      </c>
+      <c r="M36">
+        <v>-0.05800989798583073</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04015723507730425</v>
+        <v>-0.03425420718417341</v>
       </c>
       <c r="C38">
-        <v>-0.02455486201211833</v>
+        <v>-0.04871924120840822</v>
       </c>
       <c r="D38">
-        <v>0.02954463879432478</v>
+        <v>-0.008771223002799103</v>
       </c>
       <c r="E38">
-        <v>-0.05579215062642492</v>
+        <v>-0.0199100134425554</v>
       </c>
       <c r="F38">
-        <v>-0.01030430693671021</v>
+        <v>-0.03768355926911893</v>
       </c>
       <c r="G38">
-        <v>0.009980513834513058</v>
+        <v>0.01266386022791263</v>
       </c>
       <c r="H38">
-        <v>0.04758857553104687</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.08866930288347498</v>
+      </c>
+      <c r="I38">
+        <v>0.0239218228955135</v>
+      </c>
+      <c r="J38">
+        <v>0.08683284538916741</v>
+      </c>
+      <c r="K38">
+        <v>-0.02404147521924714</v>
+      </c>
+      <c r="L38">
+        <v>-0.07944611999115928</v>
+      </c>
+      <c r="M38">
+        <v>-0.07243504126084581</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.0927819450820173</v>
+        <v>-0.09125142180263626</v>
       </c>
       <c r="C39">
-        <v>-0.09331332099234872</v>
+        <v>-0.07572225586087866</v>
       </c>
       <c r="D39">
-        <v>-0.01669909536753864</v>
+        <v>0.00197112178553692</v>
       </c>
       <c r="E39">
-        <v>-0.04532526773337238</v>
+        <v>-0.03972003239734912</v>
       </c>
       <c r="F39">
-        <v>-0.002860385597434409</v>
+        <v>0.07550215650324446</v>
       </c>
       <c r="G39">
-        <v>-0.006217852830816443</v>
+        <v>0.01538982258062758</v>
       </c>
       <c r="H39">
-        <v>0.01763073872716325</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.08345151150647763</v>
+      </c>
+      <c r="I39">
+        <v>0.1162329486622181</v>
+      </c>
+      <c r="J39">
+        <v>-0.1477578269906935</v>
+      </c>
+      <c r="K39">
+        <v>0.04948607874529332</v>
+      </c>
+      <c r="L39">
+        <v>-0.07664176299158366</v>
+      </c>
+      <c r="M39">
+        <v>0.05095522074083016</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.06270800758555356</v>
+        <v>-0.03963472738036136</v>
       </c>
       <c r="C40">
-        <v>-0.0222274671598753</v>
+        <v>-0.05554963176543846</v>
       </c>
       <c r="D40">
-        <v>0.0200973277205123</v>
+        <v>-0.04854544241034721</v>
       </c>
       <c r="E40">
-        <v>-0.1807731084927447</v>
+        <v>-0.06836016862446866</v>
       </c>
       <c r="F40">
-        <v>-0.07773318626058547</v>
+        <v>0.118406948952122</v>
       </c>
       <c r="G40">
-        <v>-0.01923787913109842</v>
+        <v>-0.05357611033041219</v>
       </c>
       <c r="H40">
-        <v>0.03260087445656607</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.03419442791837053</v>
+      </c>
+      <c r="I40">
+        <v>0.09356368520965187</v>
+      </c>
+      <c r="J40">
+        <v>-0.025905800928867</v>
+      </c>
+      <c r="K40">
+        <v>0.04247228487072343</v>
+      </c>
+      <c r="L40">
+        <v>-0.08705290476671701</v>
+      </c>
+      <c r="M40">
+        <v>-0.09484829756939626</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04503785758828508</v>
+        <v>-0.03721452453317871</v>
       </c>
       <c r="C41">
-        <v>-0.04842269995127114</v>
+        <v>-0.03622520224535224</v>
       </c>
       <c r="D41">
-        <v>-0.003907906347532959</v>
+        <v>0.01102485063084119</v>
       </c>
       <c r="E41">
-        <v>-0.009247077663272329</v>
+        <v>0.0216731760473333</v>
       </c>
       <c r="F41">
-        <v>-0.01311565687776662</v>
+        <v>0.03684326064461135</v>
       </c>
       <c r="G41">
-        <v>-0.01558724592430491</v>
+        <v>0.02500892807160668</v>
       </c>
       <c r="H41">
-        <v>0.02391549343593111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.006662083159943342</v>
+      </c>
+      <c r="I41">
+        <v>0.04107397282912024</v>
+      </c>
+      <c r="J41">
+        <v>0.0003733811712500991</v>
+      </c>
+      <c r="K41">
+        <v>0.01709935813904044</v>
+      </c>
+      <c r="L41">
+        <v>1.38882771470362e-05</v>
+      </c>
+      <c r="M41">
+        <v>-0.001833163016495835</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.05642125108940999</v>
+        <v>-0.05363233804709053</v>
       </c>
       <c r="C43">
-        <v>-0.03975938384930452</v>
+        <v>-0.0515225403819022</v>
       </c>
       <c r="D43">
-        <v>-0.02305297177260936</v>
+        <v>0.008618708832557526</v>
       </c>
       <c r="E43">
-        <v>-0.02678510144577359</v>
+        <v>-0.02389154653661468</v>
       </c>
       <c r="F43">
-        <v>-0.004277809068733689</v>
+        <v>0.02138792359492504</v>
       </c>
       <c r="G43">
-        <v>0.0005624059917696613</v>
+        <v>0.04721403936070678</v>
       </c>
       <c r="H43">
-        <v>0.06661621479691707</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.002071870912050704</v>
+      </c>
+      <c r="I43">
+        <v>0.02886742978514892</v>
+      </c>
+      <c r="J43">
+        <v>-0.008252354617326383</v>
+      </c>
+      <c r="K43">
+        <v>0.01713800980956713</v>
+      </c>
+      <c r="L43">
+        <v>0.03227079215490179</v>
+      </c>
+      <c r="M43">
+        <v>-0.006736042828072666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.05299279366704668</v>
+        <v>-0.08251759598970548</v>
       </c>
       <c r="C44">
-        <v>-0.0218752127753276</v>
+        <v>-0.05492167679914822</v>
       </c>
       <c r="D44">
-        <v>-0.06561031832778384</v>
+        <v>0.04419081575039151</v>
       </c>
       <c r="E44">
-        <v>-0.1304081720188356</v>
+        <v>-0.1338951644374254</v>
       </c>
       <c r="F44">
-        <v>-0.01745149212682937</v>
+        <v>0.1204414447676892</v>
       </c>
       <c r="G44">
-        <v>-0.008916906849984418</v>
+        <v>0.04622909236886226</v>
       </c>
       <c r="H44">
-        <v>-0.02833351729617346</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.1030726599765136</v>
+      </c>
+      <c r="I44">
+        <v>0.06600648907916612</v>
+      </c>
+      <c r="J44">
+        <v>-0.03007143726518723</v>
+      </c>
+      <c r="K44">
+        <v>0.01236609554026457</v>
+      </c>
+      <c r="L44">
+        <v>-0.01848213961103431</v>
+      </c>
+      <c r="M44">
+        <v>-0.03322768433105035</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,166 +2548,271 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.02034131293036617</v>
+        <v>-0.04063621205378249</v>
       </c>
       <c r="C46">
-        <v>-0.03175545358083327</v>
+        <v>-0.0422684146701482</v>
       </c>
       <c r="D46">
-        <v>-0.01197693815545721</v>
+        <v>0.005064068422157652</v>
       </c>
       <c r="E46">
-        <v>-0.05940904521207298</v>
+        <v>-0.04365024658038819</v>
       </c>
       <c r="F46">
-        <v>-0.02717234965965704</v>
+        <v>0.01936815970381755</v>
       </c>
       <c r="G46">
-        <v>-0.005163503469993672</v>
+        <v>0.02178326788100197</v>
       </c>
       <c r="H46">
-        <v>-0.005622898509778106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.06496480057356634</v>
+      </c>
+      <c r="I46">
+        <v>0.01832488405665277</v>
+      </c>
+      <c r="J46">
+        <v>0.05813820089888851</v>
+      </c>
+      <c r="K46">
+        <v>0.01067105404822279</v>
+      </c>
+      <c r="L46">
+        <v>-0.01221462311201598</v>
+      </c>
+      <c r="M46">
+        <v>-0.04580133985209832</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.03038465460204053</v>
+        <v>-0.04444372777173097</v>
       </c>
       <c r="C47">
-        <v>0.006004436617875746</v>
+        <v>-0.02692058206073579</v>
       </c>
       <c r="D47">
-        <v>0.004546158817900497</v>
+        <v>-0.01501220895466798</v>
       </c>
       <c r="E47">
-        <v>-0.06719572997256285</v>
+        <v>-0.03249512637504259</v>
       </c>
       <c r="F47">
-        <v>-0.03792471465312883</v>
+        <v>0.0144896847457347</v>
       </c>
       <c r="G47">
-        <v>-0.0273833008718179</v>
+        <v>0.03375151389890085</v>
       </c>
       <c r="H47">
-        <v>0.002957092659914611</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.03167036554928065</v>
+      </c>
+      <c r="I47">
+        <v>-0.01912479133762612</v>
+      </c>
+      <c r="J47">
+        <v>-0.0003611284862022117</v>
+      </c>
+      <c r="K47">
+        <v>0.03021440039738434</v>
+      </c>
+      <c r="L47">
+        <v>0.04100943540692956</v>
+      </c>
+      <c r="M47">
+        <v>-0.04741211948137743</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03643975699638394</v>
+        <v>-0.0415509221046587</v>
       </c>
       <c r="C48">
-        <v>-0.02314281905504417</v>
+        <v>-0.0163195575201388</v>
       </c>
       <c r="D48">
-        <v>-0.008038627257596312</v>
+        <v>-0.01591052225895984</v>
       </c>
       <c r="E48">
-        <v>-0.04388144860278215</v>
+        <v>-0.03145825470415414</v>
       </c>
       <c r="F48">
-        <v>-0.03762843079514196</v>
+        <v>0.02415744705760176</v>
       </c>
       <c r="G48">
-        <v>-0.01438385777980898</v>
+        <v>-0.004415338493429974</v>
       </c>
       <c r="H48">
-        <v>0.05151158839144026</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.06633064207661141</v>
+      </c>
+      <c r="I48">
+        <v>0.02754816020667867</v>
+      </c>
+      <c r="J48">
+        <v>-0.0031806557447037</v>
+      </c>
+      <c r="K48">
+        <v>0.06588883148487309</v>
+      </c>
+      <c r="L48">
+        <v>0.007050717061686284</v>
+      </c>
+      <c r="M48">
+        <v>-0.03499113245923284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.1843534848982638</v>
+        <v>-0.2218715709922693</v>
       </c>
       <c r="C49">
-        <v>-0.1230237526545568</v>
+        <v>-0.08416238261899819</v>
       </c>
       <c r="D49">
-        <v>-0.07822909509561417</v>
+        <v>0.08652023615833621</v>
       </c>
       <c r="E49">
-        <v>0.08941395659687228</v>
+        <v>0.1045269131260902</v>
       </c>
       <c r="F49">
-        <v>-0.04540112119284238</v>
+        <v>-0.2026818654760587</v>
       </c>
       <c r="G49">
-        <v>0.1667043199648057</v>
+        <v>-0.1877325419344255</v>
       </c>
       <c r="H49">
-        <v>-0.07580621759323258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.01779762993069807</v>
+      </c>
+      <c r="I49">
+        <v>0.05982531867890608</v>
+      </c>
+      <c r="J49">
+        <v>-0.1213562618787955</v>
+      </c>
+      <c r="K49">
+        <v>-0.1781786971334351</v>
+      </c>
+      <c r="L49">
+        <v>0.0393381760838615</v>
+      </c>
+      <c r="M49">
+        <v>-0.1071140605834097</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05326305996116317</v>
+        <v>-0.04253341570297921</v>
       </c>
       <c r="C50">
-        <v>-0.03150326768419413</v>
+        <v>-0.04282473529473002</v>
       </c>
       <c r="D50">
-        <v>-0.00762996029885471</v>
+        <v>-0.01415791176633951</v>
       </c>
       <c r="E50">
-        <v>-0.01215088758988444</v>
+        <v>-0.006348034762290592</v>
       </c>
       <c r="F50">
-        <v>-0.03861033294606545</v>
+        <v>0.03391905489359672</v>
       </c>
       <c r="G50">
-        <v>-0.0523414868434772</v>
+        <v>0.05426428862062901</v>
       </c>
       <c r="H50">
-        <v>0.002897526889143727</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.04619208254627856</v>
+      </c>
+      <c r="I50">
+        <v>-0.02569521088970612</v>
+      </c>
+      <c r="J50">
+        <v>0.02193522471284461</v>
+      </c>
+      <c r="K50">
+        <v>0.01536813376386417</v>
+      </c>
+      <c r="L50">
+        <v>-0.04345598551863612</v>
+      </c>
+      <c r="M50">
+        <v>-0.006059365531443231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02608937943922687</v>
+        <v>-0.03222759891523665</v>
       </c>
       <c r="C51">
-        <v>-0.005041093639696959</v>
+        <v>-0.005392976113662197</v>
       </c>
       <c r="D51">
-        <v>0.001984619445710494</v>
+        <v>0.01920510091845785</v>
       </c>
       <c r="E51">
-        <v>-0.02210660234340021</v>
+        <v>-0.008077345057714567</v>
       </c>
       <c r="F51">
-        <v>-0.001425629018483268</v>
+        <v>-0.01711601337542638</v>
       </c>
       <c r="G51">
-        <v>0.02161022867953118</v>
+        <v>-0.01408769954178899</v>
       </c>
       <c r="H51">
-        <v>-0.0204255762180373</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.02068073144995313</v>
+      </c>
+      <c r="I51">
+        <v>0.01004402941060043</v>
+      </c>
+      <c r="J51">
+        <v>-0.07205537062039759</v>
+      </c>
+      <c r="K51">
+        <v>-0.04023034552223109</v>
+      </c>
+      <c r="L51">
+        <v>0.0686009084554032</v>
+      </c>
+      <c r="M51">
+        <v>0.04549959656840486</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2055,114 +2835,189 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1653297222932854</v>
+        <v>-0.1530813091671122</v>
       </c>
       <c r="C53">
-        <v>-0.01947967930128788</v>
+        <v>-0.05241502885823226</v>
       </c>
       <c r="D53">
-        <v>-0.03526051084664849</v>
+        <v>0.01951863728303413</v>
       </c>
       <c r="E53">
-        <v>0.05297883582878474</v>
+        <v>0.050813987434396</v>
       </c>
       <c r="F53">
-        <v>0.09243119006527964</v>
+        <v>-0.02883466073951305</v>
       </c>
       <c r="G53">
-        <v>-0.2652119994743349</v>
+        <v>0.2396380745562921</v>
       </c>
       <c r="H53">
-        <v>0.03102596955042744</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.0727126797200482</v>
+      </c>
+      <c r="I53">
+        <v>-0.07943889104447106</v>
+      </c>
+      <c r="J53">
+        <v>0.03623463885802666</v>
+      </c>
+      <c r="K53">
+        <v>-0.07604656800107325</v>
+      </c>
+      <c r="L53">
+        <v>-0.06950814618093976</v>
+      </c>
+      <c r="M53">
+        <v>0.07640445389433131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.05463203954496511</v>
+        <v>-0.05662329896335542</v>
       </c>
       <c r="C54">
-        <v>-0.03740240320826314</v>
+        <v>-0.02799344266679083</v>
       </c>
       <c r="D54">
-        <v>-0.0331625399912506</v>
+        <v>-0.005124779291985132</v>
       </c>
       <c r="E54">
-        <v>-0.03733262728752306</v>
+        <v>-0.03921481991892498</v>
       </c>
       <c r="F54">
-        <v>-0.00184406296796575</v>
+        <v>0.09555126021868991</v>
       </c>
       <c r="G54">
-        <v>-0.002913503312249333</v>
+        <v>0.03035666439447271</v>
       </c>
       <c r="H54">
-        <v>0.02983746009765565</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.08941230493673626</v>
+      </c>
+      <c r="I54">
+        <v>0.01368932230270101</v>
+      </c>
+      <c r="J54">
+        <v>0.05398713215552808</v>
+      </c>
+      <c r="K54">
+        <v>0.06002432338979991</v>
+      </c>
+      <c r="L54">
+        <v>-0.00871437328153188</v>
+      </c>
+      <c r="M54">
+        <v>-0.05986121236664571</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09359030082519657</v>
+        <v>-0.09088227800769587</v>
       </c>
       <c r="C55">
-        <v>-0.006055441371502684</v>
+        <v>-0.0412044345539966</v>
       </c>
       <c r="D55">
-        <v>-0.02981147403424224</v>
+        <v>0.0257620021722339</v>
       </c>
       <c r="E55">
-        <v>-0.005383631263733831</v>
+        <v>0.01702069354084989</v>
       </c>
       <c r="F55">
-        <v>0.04267191801936446</v>
+        <v>0.02822980720313159</v>
       </c>
       <c r="G55">
-        <v>-0.2358527352071428</v>
+        <v>0.1727226097907638</v>
       </c>
       <c r="H55">
-        <v>0.01095068631618009</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.004876266513715613</v>
+      </c>
+      <c r="I55">
+        <v>-0.03897236073213924</v>
+      </c>
+      <c r="J55">
+        <v>0.02162159569970727</v>
+      </c>
+      <c r="K55">
+        <v>-0.06788087174005726</v>
+      </c>
+      <c r="L55">
+        <v>-0.01521934260437299</v>
+      </c>
+      <c r="M55">
+        <v>0.03314360920596557</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1706170952232086</v>
+        <v>-0.1462618727369301</v>
       </c>
       <c r="C56">
-        <v>-0.01874900835805824</v>
+        <v>-0.0706503557918845</v>
       </c>
       <c r="D56">
-        <v>-0.06812593207926208</v>
+        <v>0.02843677312586278</v>
       </c>
       <c r="E56">
-        <v>0.05257463316722401</v>
+        <v>0.02505913785876035</v>
       </c>
       <c r="F56">
-        <v>0.1108095859684079</v>
+        <v>-0.009699135745438139</v>
       </c>
       <c r="G56">
-        <v>-0.2177608050352044</v>
+        <v>0.2437156578073431</v>
       </c>
       <c r="H56">
-        <v>0.04188873181709687</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1096828548887379</v>
+      </c>
+      <c r="I56">
+        <v>-0.06452781227120798</v>
+      </c>
+      <c r="J56">
+        <v>0.03800788142908375</v>
+      </c>
+      <c r="K56">
+        <v>-0.02781691224524461</v>
+      </c>
+      <c r="L56">
+        <v>-0.06377503253374618</v>
+      </c>
+      <c r="M56">
+        <v>0.03739135980747058</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,998 +3040,1583 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.04967881402051849</v>
+        <v>-0.04107845503631758</v>
       </c>
       <c r="C58">
-        <v>-0.03985649427023549</v>
+        <v>-0.03478891856408715</v>
       </c>
       <c r="D58">
-        <v>-0.0454674430487708</v>
+        <v>-0.01888880486040249</v>
       </c>
       <c r="E58">
-        <v>-0.283808721219026</v>
+        <v>-0.09395641993723183</v>
       </c>
       <c r="F58">
-        <v>-0.235963501091975</v>
+        <v>-0.03915136711103853</v>
       </c>
       <c r="G58">
-        <v>0.1301977577452137</v>
+        <v>-0.09088952621043496</v>
       </c>
       <c r="H58">
-        <v>0.006730445571096304</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.2226219278729513</v>
+      </c>
+      <c r="I58">
+        <v>-0.05959235851207988</v>
+      </c>
+      <c r="J58">
+        <v>-0.3961514360211272</v>
+      </c>
+      <c r="K58">
+        <v>0.3384515004896258</v>
+      </c>
+      <c r="L58">
+        <v>0.2402054676069647</v>
+      </c>
+      <c r="M58">
+        <v>0.1651800659094013</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2471675419968867</v>
+        <v>-0.22809762522051</v>
       </c>
       <c r="C59">
-        <v>0.4157748127498642</v>
+        <v>0.3092274861805041</v>
       </c>
       <c r="D59">
-        <v>-0.0583495460556612</v>
+        <v>0.01369129977390074</v>
       </c>
       <c r="E59">
-        <v>-0.06002184344559301</v>
+        <v>0.0006353242721255418</v>
       </c>
       <c r="F59">
-        <v>0.06168419776599337</v>
+        <v>0.02317633572826559</v>
       </c>
       <c r="G59">
-        <v>0.007575970229580371</v>
+        <v>0.06235988338827438</v>
       </c>
       <c r="H59">
-        <v>0.01041720845347979</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.09525676649434704</v>
+      </c>
+      <c r="I59">
+        <v>0.03362717806185669</v>
+      </c>
+      <c r="J59">
+        <v>-0.01357495662046698</v>
+      </c>
+      <c r="K59">
+        <v>-0.02355535173272939</v>
+      </c>
+      <c r="L59">
+        <v>0.0321954009266275</v>
+      </c>
+      <c r="M59">
+        <v>0.02962662867752178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.242506981272205</v>
+        <v>-0.2408246494567211</v>
       </c>
       <c r="C60">
-        <v>-0.0839325514597376</v>
+        <v>-0.1144346922202746</v>
       </c>
       <c r="D60">
-        <v>-0.08837541033016892</v>
+        <v>0.08366583648877256</v>
       </c>
       <c r="E60">
-        <v>0.01330446979126242</v>
+        <v>0.0683516322402169</v>
       </c>
       <c r="F60">
-        <v>-0.007929150327976035</v>
+        <v>-0.0725864585878648</v>
       </c>
       <c r="G60">
-        <v>0.0598361434011017</v>
+        <v>-0.07677941574007607</v>
       </c>
       <c r="H60">
-        <v>-0.09671309252689617</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.09774820765930421</v>
+      </c>
+      <c r="I60">
+        <v>-0.1755917043318585</v>
+      </c>
+      <c r="J60">
+        <v>-0.004836830842749763</v>
+      </c>
+      <c r="K60">
+        <v>-0.07567636518472512</v>
+      </c>
+      <c r="L60">
+        <v>0.0353942379963915</v>
+      </c>
+      <c r="M60">
+        <v>0.154311420730867</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.07802106506564618</v>
+        <v>-0.08441693256599231</v>
       </c>
       <c r="C61">
-        <v>-0.05938725821211857</v>
+        <v>-0.05704479330902645</v>
       </c>
       <c r="D61">
-        <v>-0.01707295383724836</v>
+        <v>0.01647398687933085</v>
       </c>
       <c r="E61">
-        <v>-0.01295163846082976</v>
+        <v>-0.02774536737453822</v>
       </c>
       <c r="F61">
-        <v>-0.01541432884228349</v>
+        <v>0.07710404577352206</v>
       </c>
       <c r="G61">
-        <v>-0.01724079317922454</v>
+        <v>0.05666997270567159</v>
       </c>
       <c r="H61">
-        <v>0.02293173048997548</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.04695026597715288</v>
+      </c>
+      <c r="I61">
+        <v>0.07117754621192852</v>
+      </c>
+      <c r="J61">
+        <v>-0.06426102403487328</v>
+      </c>
+      <c r="K61">
+        <v>0.01688247680721621</v>
+      </c>
+      <c r="L61">
+        <v>-0.03384108404624227</v>
+      </c>
+      <c r="M61">
+        <v>0.005635720259405313</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1607435961028009</v>
+        <v>-0.1457851477412958</v>
       </c>
       <c r="C62">
-        <v>-0.04536612733598935</v>
+        <v>-0.07483038645676555</v>
       </c>
       <c r="D62">
-        <v>-0.02275853762848494</v>
+        <v>0.009115054827373964</v>
       </c>
       <c r="E62">
-        <v>0.1004236569957313</v>
+        <v>0.06726223098515918</v>
       </c>
       <c r="F62">
-        <v>0.1130508980394013</v>
+        <v>0.01553332020521374</v>
       </c>
       <c r="G62">
-        <v>-0.2439049385939853</v>
+        <v>0.213945142373178</v>
       </c>
       <c r="H62">
-        <v>0.02273160756588901</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.05887682586681559</v>
+      </c>
+      <c r="I62">
+        <v>-0.08507288250177306</v>
+      </c>
+      <c r="J62">
+        <v>0.08748344511292803</v>
+      </c>
+      <c r="K62">
+        <v>-0.07689377405686021</v>
+      </c>
+      <c r="L62">
+        <v>-0.07865332076121911</v>
+      </c>
+      <c r="M62">
+        <v>-0.05592991017224624</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.0465986516644945</v>
+        <v>-0.04527473343717744</v>
       </c>
       <c r="C63">
-        <v>-0.05352343387852022</v>
+        <v>-0.03064497848996749</v>
       </c>
       <c r="D63">
-        <v>-0.02061499968698782</v>
+        <v>-0.007703675692349512</v>
       </c>
       <c r="E63">
-        <v>-0.009289097578872496</v>
+        <v>-0.006798815503983891</v>
       </c>
       <c r="F63">
-        <v>-0.003742641890799451</v>
+        <v>0.0548015563620583</v>
       </c>
       <c r="G63">
-        <v>-0.04012760811443243</v>
+        <v>0.01390773200972702</v>
       </c>
       <c r="H63">
-        <v>-0.01751288144247602</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.07535842917709494</v>
+      </c>
+      <c r="I63">
+        <v>-0.01102018346136678</v>
+      </c>
+      <c r="J63">
+        <v>0.002737922129617545</v>
+      </c>
+      <c r="K63">
+        <v>0.01977435048472835</v>
+      </c>
+      <c r="L63">
+        <v>-0.0142321528731287</v>
+      </c>
+      <c r="M63">
+        <v>-0.03870640038823744</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1023452916759924</v>
+        <v>-0.1022035987013826</v>
       </c>
       <c r="C64">
-        <v>-0.03876130408550626</v>
+        <v>-0.04810644107422796</v>
       </c>
       <c r="D64">
-        <v>-0.03391476083701212</v>
+        <v>0.02752206376142311</v>
       </c>
       <c r="E64">
-        <v>-0.03300753629305501</v>
+        <v>-0.03213428353745661</v>
       </c>
       <c r="F64">
-        <v>-0.04782773849466987</v>
+        <v>0.05086192337966611</v>
       </c>
       <c r="G64">
-        <v>0.01102558763672132</v>
+        <v>-0.0166131443914955</v>
       </c>
       <c r="H64">
-        <v>-0.001551961560840882</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.06026017181661944</v>
+      </c>
+      <c r="I64">
+        <v>0.0107046517362691</v>
+      </c>
+      <c r="J64">
+        <v>-0.03936563223130055</v>
+      </c>
+      <c r="K64">
+        <v>-0.008951247980954648</v>
+      </c>
+      <c r="L64">
+        <v>-0.1005588909924473</v>
+      </c>
+      <c r="M64">
+        <v>-0.02424460859315777</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1294222810675543</v>
+        <v>-0.1258989573948887</v>
       </c>
       <c r="C65">
-        <v>-0.07103755237120178</v>
+        <v>-0.04080066348895883</v>
       </c>
       <c r="D65">
-        <v>-0.05922757848623203</v>
+        <v>0.01190402285844393</v>
       </c>
       <c r="E65">
-        <v>-0.05647690935353991</v>
+        <v>0.01370940891090637</v>
       </c>
       <c r="F65">
-        <v>-0.1511266200139289</v>
+        <v>0.06977563940412707</v>
       </c>
       <c r="G65">
-        <v>0.04759743431363095</v>
+        <v>-0.1716132145114967</v>
       </c>
       <c r="H65">
-        <v>-0.3074932627540553</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.2204927270973445</v>
+      </c>
+      <c r="I65">
+        <v>-0.5920320449118673</v>
+      </c>
+      <c r="J65">
+        <v>0.2503106612420866</v>
+      </c>
+      <c r="K65">
+        <v>0.07004414453088829</v>
+      </c>
+      <c r="L65">
+        <v>0.1422200248275953</v>
+      </c>
+      <c r="M65">
+        <v>-0.02407844712709135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1527206877165532</v>
+        <v>-0.1256813648692164</v>
       </c>
       <c r="C66">
-        <v>-0.1441954581955507</v>
+        <v>-0.1235143102868497</v>
       </c>
       <c r="D66">
-        <v>-0.05118614491541937</v>
+        <v>0.0006221265784318927</v>
       </c>
       <c r="E66">
-        <v>-0.01911572512617857</v>
+        <v>-0.02902060070818436</v>
       </c>
       <c r="F66">
-        <v>0.006981354562088939</v>
+        <v>0.09779500814680825</v>
       </c>
       <c r="G66">
-        <v>-0.008504985343246719</v>
+        <v>0.03401811361066898</v>
       </c>
       <c r="H66">
-        <v>0.03677717561749698</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.07870905765509896</v>
+      </c>
+      <c r="I66">
+        <v>0.181406999574815</v>
+      </c>
+      <c r="J66">
+        <v>-0.1506777939595414</v>
+      </c>
+      <c r="K66">
+        <v>0.01383153744769363</v>
+      </c>
+      <c r="L66">
+        <v>-0.1388807230773096</v>
+      </c>
+      <c r="M66">
+        <v>0.08429512955794424</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.07241633225842781</v>
+        <v>-0.08602337994865225</v>
       </c>
       <c r="C67">
-        <v>-0.04218794278014875</v>
+        <v>-0.06826193459305645</v>
       </c>
       <c r="D67">
-        <v>-0.004054955505429017</v>
+        <v>0.01871885214244663</v>
       </c>
       <c r="E67">
-        <v>-0.02098285055549289</v>
+        <v>-0.03289511258078612</v>
       </c>
       <c r="F67">
-        <v>0.006331771068280549</v>
+        <v>-0.01941313832289421</v>
       </c>
       <c r="G67">
-        <v>0.02899706875814151</v>
+        <v>0.009635423525762458</v>
       </c>
       <c r="H67">
-        <v>0.04592516726468768</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.1188386698778407</v>
+      </c>
+      <c r="I67">
+        <v>0.03260891933463562</v>
+      </c>
+      <c r="J67">
+        <v>0.06715991065405866</v>
+      </c>
+      <c r="K67">
+        <v>-0.06226515325031824</v>
+      </c>
+      <c r="L67">
+        <v>-0.04286817692843447</v>
+      </c>
+      <c r="M67">
+        <v>-0.05011367184523323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.1044138848317178</v>
+        <v>-0.1224961427193328</v>
       </c>
       <c r="C68">
-        <v>0.2570807599655516</v>
+        <v>0.2706734423715593</v>
       </c>
       <c r="D68">
-        <v>-0.01364510414968503</v>
+        <v>-0.01046167337904637</v>
       </c>
       <c r="E68">
-        <v>-0.01802036416961294</v>
+        <v>-0.03031315081955895</v>
       </c>
       <c r="F68">
-        <v>-0.0139678561095642</v>
+        <v>-0.00826277873017299</v>
       </c>
       <c r="G68">
-        <v>-0.02797163776093389</v>
+        <v>0.02771612265926005</v>
       </c>
       <c r="H68">
-        <v>0.02745506406316686</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.02715432906429322</v>
+      </c>
+      <c r="I68">
+        <v>-0.05350364832990177</v>
+      </c>
+      <c r="J68">
+        <v>0.023834976341439</v>
+      </c>
+      <c r="K68">
+        <v>0.03478305608002489</v>
+      </c>
+      <c r="L68">
+        <v>-0.02796577113163087</v>
+      </c>
+      <c r="M68">
+        <v>-0.01788794340058836</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.04856315131830165</v>
+        <v>-0.04636388161679365</v>
       </c>
       <c r="C69">
-        <v>-0.02452544612622727</v>
+        <v>-0.0252311575340829</v>
       </c>
       <c r="D69">
-        <v>-0.01160129772646004</v>
+        <v>-0.009965414121954824</v>
       </c>
       <c r="E69">
-        <v>-0.03085110372627525</v>
+        <v>-0.007347117725377171</v>
       </c>
       <c r="F69">
-        <v>0.04943420128666013</v>
+        <v>0.02822932045650062</v>
       </c>
       <c r="G69">
-        <v>-0.02510045587771897</v>
+        <v>0.04022434116836859</v>
       </c>
       <c r="H69">
-        <v>-0.009702849599345902</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.01295589133072753</v>
+      </c>
+      <c r="I69">
+        <v>-0.001413928542909538</v>
+      </c>
+      <c r="J69">
+        <v>-0.01839319389335108</v>
+      </c>
+      <c r="K69">
+        <v>0.01563692670481586</v>
+      </c>
+      <c r="L69">
+        <v>0.04676255540656585</v>
+      </c>
+      <c r="M69">
+        <v>-0.06656588138565878</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.03097788679560813</v>
+        <v>-0.05436525508197598</v>
       </c>
       <c r="C70">
-        <v>-0.01180304860613765</v>
+        <v>-0.03494305091015615</v>
       </c>
       <c r="D70">
-        <v>0.011914444796716</v>
+        <v>0.02060350176733559</v>
       </c>
       <c r="E70">
-        <v>-0.006282793739161545</v>
+        <v>0.03149461046400059</v>
       </c>
       <c r="F70">
-        <v>-0.01597424912394015</v>
+        <v>0.03166834760744988</v>
       </c>
       <c r="G70">
-        <v>0.09755216369412113</v>
+        <v>-0.03874697736944231</v>
       </c>
       <c r="H70">
-        <v>0.04677129696238694</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.06907218958288427</v>
+      </c>
+      <c r="I70">
+        <v>0.1202587191757726</v>
+      </c>
+      <c r="J70">
+        <v>0.1389164078578989</v>
+      </c>
+      <c r="K70">
+        <v>0.1531511940274778</v>
+      </c>
+      <c r="L70">
+        <v>0.05943440774427487</v>
+      </c>
+      <c r="M70">
+        <v>-0.1037760330080135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.1113079714799377</v>
+        <v>-0.1370541191978995</v>
       </c>
       <c r="C71">
-        <v>0.2767235301577515</v>
+        <v>0.2808946918795078</v>
       </c>
       <c r="D71">
-        <v>-0.04581830918996153</v>
+        <v>0.0104944817730566</v>
       </c>
       <c r="E71">
-        <v>-0.01222541769096049</v>
+        <v>-0.0385914846678202</v>
       </c>
       <c r="F71">
-        <v>-0.01999475441898432</v>
+        <v>-0.00288304311878613</v>
       </c>
       <c r="G71">
-        <v>0.004962754551367751</v>
+        <v>0.0156591440374962</v>
       </c>
       <c r="H71">
-        <v>0.03035249153190719</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.02516007152261875</v>
+      </c>
+      <c r="I71">
+        <v>-0.01331204095609871</v>
+      </c>
+      <c r="J71">
+        <v>0.006241798066715201</v>
+      </c>
+      <c r="K71">
+        <v>-0.007839630172809692</v>
+      </c>
+      <c r="L71">
+        <v>-0.005216709713986501</v>
+      </c>
+      <c r="M71">
+        <v>-0.01165639565589209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1848091755060755</v>
+        <v>-0.1447077546652116</v>
       </c>
       <c r="C72">
-        <v>-0.0236202197120727</v>
+        <v>-0.03487693505284369</v>
       </c>
       <c r="D72">
-        <v>0.2137096291833424</v>
+        <v>-0.157989783584064</v>
       </c>
       <c r="E72">
-        <v>0.02568242457867628</v>
+        <v>0.09229794256932504</v>
       </c>
       <c r="F72">
-        <v>0.01590073229166111</v>
+        <v>0.09714171766699367</v>
       </c>
       <c r="G72">
-        <v>0.0002472744392140197</v>
+        <v>0.01855933643895135</v>
       </c>
       <c r="H72">
-        <v>-0.13967806591893</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.01453770281167842</v>
+      </c>
+      <c r="I72">
+        <v>-0.1587419477074163</v>
+      </c>
+      <c r="J72">
+        <v>0.02473051071632995</v>
+      </c>
+      <c r="K72">
+        <v>-0.06653302496382592</v>
+      </c>
+      <c r="L72">
+        <v>0.02480193643958033</v>
+      </c>
+      <c r="M72">
+        <v>-0.02012582897637287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2635309680464722</v>
+        <v>-0.2343949119727431</v>
       </c>
       <c r="C73">
-        <v>-0.1734305638369663</v>
+        <v>-0.1580066535386972</v>
       </c>
       <c r="D73">
-        <v>-0.1635205903690804</v>
+        <v>0.1958917183408528</v>
       </c>
       <c r="E73">
-        <v>0.09997545336847853</v>
+        <v>0.1681922413720305</v>
       </c>
       <c r="F73">
-        <v>-0.1434142149412251</v>
+        <v>-0.3285727835493975</v>
       </c>
       <c r="G73">
-        <v>0.1165572730026846</v>
+        <v>-0.2554501538406103</v>
       </c>
       <c r="H73">
-        <v>-0.1709597861513192</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.07537121354409315</v>
+      </c>
+      <c r="I73">
+        <v>-0.1047426393259526</v>
+      </c>
+      <c r="J73">
+        <v>-0.4498755552056192</v>
+      </c>
+      <c r="K73">
+        <v>-0.2464887179462747</v>
+      </c>
+      <c r="L73">
+        <v>0.01276131860652245</v>
+      </c>
+      <c r="M73">
+        <v>-0.03286303647387431</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.08861380423943592</v>
+        <v>-0.08735625865207482</v>
       </c>
       <c r="C74">
-        <v>-0.02315570880747062</v>
+        <v>-0.06577766156660145</v>
       </c>
       <c r="D74">
-        <v>-0.02132986108968935</v>
+        <v>0.009303399711677289</v>
       </c>
       <c r="E74">
-        <v>0.02178496899741476</v>
+        <v>0.02038412741610163</v>
       </c>
       <c r="F74">
-        <v>-0.01460494643187435</v>
+        <v>-0.02324876856943787</v>
       </c>
       <c r="G74">
-        <v>-0.1644094682444075</v>
+        <v>0.1470579809167282</v>
       </c>
       <c r="H74">
-        <v>0.003099153626821441</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.00805619246032935</v>
+      </c>
+      <c r="I74">
+        <v>-0.03886027088875057</v>
+      </c>
+      <c r="J74">
+        <v>-0.03740058725379595</v>
+      </c>
+      <c r="K74">
+        <v>-0.04848365481111799</v>
+      </c>
+      <c r="L74">
+        <v>-0.02771650948293518</v>
+      </c>
+      <c r="M74">
+        <v>-0.0443152998715562</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.1001796633923809</v>
+        <v>-0.09080261174387129</v>
       </c>
       <c r="C75">
-        <v>-0.01928371508219093</v>
+        <v>-0.05025860010971243</v>
       </c>
       <c r="D75">
-        <v>-0.02338616266245423</v>
+        <v>-0.0004951613218225481</v>
       </c>
       <c r="E75">
-        <v>0.01093276217892281</v>
+        <v>0.01738752368675783</v>
       </c>
       <c r="F75">
-        <v>0.09405522786986249</v>
+        <v>-0.006979311282298647</v>
       </c>
       <c r="G75">
-        <v>-0.09121202743540759</v>
+        <v>0.1224876655195025</v>
       </c>
       <c r="H75">
-        <v>0.03335862976804107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.07556863748808199</v>
+      </c>
+      <c r="I75">
+        <v>-0.01742833714285292</v>
+      </c>
+      <c r="J75">
+        <v>0.01866813983673565</v>
+      </c>
+      <c r="K75">
+        <v>0.02183350440590639</v>
+      </c>
+      <c r="L75">
+        <v>0.06818553159369305</v>
+      </c>
+      <c r="M75">
+        <v>-0.005948238456299829</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1332871618175975</v>
+        <v>-0.1041242947133732</v>
       </c>
       <c r="C76">
-        <v>-0.03400720034812595</v>
+        <v>-0.07401644454700319</v>
       </c>
       <c r="D76">
-        <v>-0.03007695759261171</v>
+        <v>0.02757085812250402</v>
       </c>
       <c r="E76">
-        <v>0.0104693134401321</v>
+        <v>0.02806853564345858</v>
       </c>
       <c r="F76">
-        <v>0.07451054386203491</v>
+        <v>-0.02291552955535</v>
       </c>
       <c r="G76">
-        <v>-0.2327443847123978</v>
+        <v>0.2288521335841764</v>
       </c>
       <c r="H76">
-        <v>0.01079885483485332</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.05679746080022624</v>
+      </c>
+      <c r="I76">
+        <v>-0.0617762676494785</v>
+      </c>
+      <c r="J76">
+        <v>0.01311262029273003</v>
+      </c>
+      <c r="K76">
+        <v>-0.06355606094354373</v>
+      </c>
+      <c r="L76">
+        <v>-0.08910864308080936</v>
+      </c>
+      <c r="M76">
+        <v>0.0681598524147157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.09089972588810366</v>
+        <v>-0.07399581150118661</v>
       </c>
       <c r="C77">
-        <v>-0.0525886082528011</v>
+        <v>-0.02058053221946534</v>
       </c>
       <c r="D77">
-        <v>0.06130693990770549</v>
+        <v>-0.005117696002269392</v>
       </c>
       <c r="E77">
-        <v>-0.4138362727015649</v>
+        <v>-0.1414967717436181</v>
       </c>
       <c r="F77">
-        <v>0.4436171484120339</v>
+        <v>0.6112073790640099</v>
       </c>
       <c r="G77">
-        <v>0.2094921126085567</v>
+        <v>-0.3439510886037362</v>
       </c>
       <c r="H77">
-        <v>-0.506550044034088</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.5108958306850697</v>
+      </c>
+      <c r="I77">
+        <v>-0.08617887198412592</v>
+      </c>
+      <c r="J77">
+        <v>-0.1041203531150881</v>
+      </c>
+      <c r="K77">
+        <v>-0.1510284682981769</v>
+      </c>
+      <c r="L77">
+        <v>-0.1423610981986128</v>
+      </c>
+      <c r="M77">
+        <v>0.05014165561034282</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1227079525584217</v>
+        <v>-0.1632348308625991</v>
       </c>
       <c r="C78">
-        <v>-0.09670865015504211</v>
+        <v>-0.1099426630276343</v>
       </c>
       <c r="D78">
-        <v>-0.01902957722553381</v>
+        <v>-0.004867443121747626</v>
       </c>
       <c r="E78">
-        <v>-0.1034992143224239</v>
+        <v>-0.1974579176382001</v>
       </c>
       <c r="F78">
-        <v>-0.09596884736397193</v>
+        <v>0.01872633237732219</v>
       </c>
       <c r="G78">
-        <v>0.02124910392970716</v>
+        <v>-0.07624325052390517</v>
       </c>
       <c r="H78">
-        <v>0.04829341630958186</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.1453525546348338</v>
+      </c>
+      <c r="I78">
+        <v>0.1614017610575083</v>
+      </c>
+      <c r="J78">
+        <v>0.184802421278831</v>
+      </c>
+      <c r="K78">
+        <v>-0.3125820327065581</v>
+      </c>
+      <c r="L78">
+        <v>0.3128551177806349</v>
+      </c>
+      <c r="M78">
+        <v>0.609986967607373</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1472309660601137</v>
+        <v>-0.1371099838939009</v>
       </c>
       <c r="C79">
-        <v>-0.05617735610899489</v>
+        <v>-0.07458618224422325</v>
       </c>
       <c r="D79">
-        <v>-0.03302843992955455</v>
+        <v>0.01082078765541775</v>
       </c>
       <c r="E79">
-        <v>0.0288377906549008</v>
+        <v>0.007382237692978022</v>
       </c>
       <c r="F79">
-        <v>0.1073067516747889</v>
+        <v>0.01833107018652489</v>
       </c>
       <c r="G79">
-        <v>-0.1557916953810012</v>
+        <v>0.1788495402153496</v>
       </c>
       <c r="H79">
-        <v>0.04648130253032359</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.0719936656393985</v>
+      </c>
+      <c r="I79">
+        <v>-0.06719839593944298</v>
+      </c>
+      <c r="J79">
+        <v>0.0433309075193112</v>
+      </c>
+      <c r="K79">
+        <v>-0.02344662224955441</v>
+      </c>
+      <c r="L79">
+        <v>-0.005025874569346942</v>
+      </c>
+      <c r="M79">
+        <v>-0.0470918062058261</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.01697115717593519</v>
+        <v>-0.03636421396884595</v>
       </c>
       <c r="C80">
-        <v>0.007933633095552077</v>
+        <v>-0.01212138168710458</v>
       </c>
       <c r="D80">
-        <v>0.00653943377279173</v>
+        <v>0.03639114549701714</v>
       </c>
       <c r="E80">
-        <v>0.001453922039122785</v>
+        <v>0.06847533448365609</v>
       </c>
       <c r="F80">
-        <v>-0.04455586462942203</v>
+        <v>0.02480923199034943</v>
       </c>
       <c r="G80">
-        <v>-0.009365038796877273</v>
+        <v>-0.01414617691995504</v>
       </c>
       <c r="H80">
-        <v>-0.03781940094690744</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.1062420617033907</v>
+      </c>
+      <c r="I80">
+        <v>0.04759599134917759</v>
+      </c>
+      <c r="J80">
+        <v>-0.01962828537261408</v>
+      </c>
+      <c r="K80">
+        <v>-0.00844817951769585</v>
+      </c>
+      <c r="L80">
+        <v>0.04381269678412097</v>
+      </c>
+      <c r="M80">
+        <v>-0.05261908426384106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1211778332047525</v>
+        <v>-0.1210297044672572</v>
       </c>
       <c r="C81">
-        <v>-0.04187841788210168</v>
+        <v>-0.0526537729459676</v>
       </c>
       <c r="D81">
-        <v>-0.04181520235601711</v>
+        <v>0.0121039623627219</v>
       </c>
       <c r="E81">
-        <v>0.01949516883372858</v>
+        <v>0.008355166699574791</v>
       </c>
       <c r="F81">
-        <v>0.0569939019958482</v>
+        <v>0.01718527731125143</v>
       </c>
       <c r="G81">
-        <v>-0.09232812865689669</v>
+        <v>0.1645195327973145</v>
       </c>
       <c r="H81">
-        <v>0.004867389325094279</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.03214877055035176</v>
+      </c>
+      <c r="I81">
+        <v>-0.002434200340356918</v>
+      </c>
+      <c r="J81">
+        <v>-0.03350673187521271</v>
+      </c>
+      <c r="K81">
+        <v>0.03055850405905028</v>
+      </c>
+      <c r="L81">
+        <v>-0.002495039135466749</v>
+      </c>
+      <c r="M81">
+        <v>-0.06060189500187203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1175211111903385</v>
+        <v>-0.1184002141983206</v>
       </c>
       <c r="C82">
-        <v>-0.0521216636384212</v>
+        <v>-0.06001022493105668</v>
       </c>
       <c r="D82">
-        <v>-0.06431349832331391</v>
+        <v>0.01727642154922878</v>
       </c>
       <c r="E82">
-        <v>0.04846245281322287</v>
+        <v>0.02965639495340425</v>
       </c>
       <c r="F82">
-        <v>0.1586251353075105</v>
+        <v>-0.01191420810504883</v>
       </c>
       <c r="G82">
-        <v>-0.2467547563066236</v>
+        <v>0.2595576189752419</v>
       </c>
       <c r="H82">
-        <v>0.08050977218822901</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.08144870947344614</v>
+      </c>
+      <c r="I82">
+        <v>0.03408376269010818</v>
+      </c>
+      <c r="J82">
+        <v>0.01941034221540148</v>
+      </c>
+      <c r="K82">
+        <v>-0.004512456375566704</v>
+      </c>
+      <c r="L82">
+        <v>-0.04740121496946194</v>
+      </c>
+      <c r="M82">
+        <v>-0.1168521583186348</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.04541760429018341</v>
+        <v>-0.07469241409819888</v>
       </c>
       <c r="C83">
-        <v>-0.03321080984160819</v>
+        <v>-0.05937962769550104</v>
       </c>
       <c r="D83">
-        <v>-0.0337838321834386</v>
+        <v>0.02924737490391129</v>
       </c>
       <c r="E83">
-        <v>0.01763464229061193</v>
+        <v>-0.003869074385999834</v>
       </c>
       <c r="F83">
-        <v>-0.01726391730430883</v>
+        <v>0.0140595173818831</v>
       </c>
       <c r="G83">
-        <v>0.1086286746696772</v>
+        <v>-0.04361521388154623</v>
       </c>
       <c r="H83">
-        <v>0.05427317815129207</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.005366425800927961</v>
+      </c>
+      <c r="I83">
+        <v>0.09216893223640059</v>
+      </c>
+      <c r="J83">
+        <v>0.05190925515579271</v>
+      </c>
+      <c r="K83">
+        <v>0.07501189375448777</v>
+      </c>
+      <c r="L83">
+        <v>0.05773996154716941</v>
+      </c>
+      <c r="M83">
+        <v>-0.03015829241033171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05289268680558926</v>
+        <v>-0.03992804680068832</v>
       </c>
       <c r="C84">
-        <v>-0.02168335650707272</v>
+        <v>0.02530750269196143</v>
       </c>
       <c r="D84">
-        <v>0.01031269393649674</v>
+        <v>-0.03386260063446682</v>
       </c>
       <c r="E84">
-        <v>0.02865420480419656</v>
+        <v>-0.01033960030043734</v>
       </c>
       <c r="F84">
-        <v>-0.1077113607815922</v>
+        <v>-0.05389206040716513</v>
       </c>
       <c r="G84">
-        <v>-0.04206782660589863</v>
+        <v>-0.1436015680028427</v>
       </c>
       <c r="H84">
-        <v>0.08673791381709595</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.2103368903951685</v>
+      </c>
+      <c r="I84">
+        <v>0.2535342322576598</v>
+      </c>
+      <c r="J84">
+        <v>0.2205585609494834</v>
+      </c>
+      <c r="K84">
+        <v>-0.3569332275913156</v>
+      </c>
+      <c r="L84">
+        <v>-0.1049043988316447</v>
+      </c>
+      <c r="M84">
+        <v>-0.04848371326804346</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.07753931355046113</v>
+        <v>-0.1066421317959638</v>
       </c>
       <c r="C85">
-        <v>-0.04310819669343846</v>
+        <v>-0.0533662461855503</v>
       </c>
       <c r="D85">
-        <v>-0.06340793065272152</v>
+        <v>0.04771337948696018</v>
       </c>
       <c r="E85">
-        <v>0.01057137226562923</v>
+        <v>-0.00140058237734534</v>
       </c>
       <c r="F85">
-        <v>0.06879192518126617</v>
+        <v>0.0103262278884396</v>
       </c>
       <c r="G85">
-        <v>-0.1685826775215807</v>
+        <v>0.1843836714996551</v>
       </c>
       <c r="H85">
-        <v>-0.004566340844772823</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.0460397156870694</v>
+      </c>
+      <c r="I85">
+        <v>-0.05699838735883005</v>
+      </c>
+      <c r="J85">
+        <v>0.03716883348423444</v>
+      </c>
+      <c r="K85">
+        <v>-0.04079512400614588</v>
+      </c>
+      <c r="L85">
+        <v>0.00411477030229947</v>
+      </c>
+      <c r="M85">
+        <v>-0.03843714687718148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.03597008588419303</v>
+        <v>-0.07020786643520525</v>
       </c>
       <c r="C86">
-        <v>-0.05070760157322875</v>
+        <v>-0.02050280016466206</v>
       </c>
       <c r="D86">
-        <v>0.01150592085694578</v>
+        <v>0.001879154173371953</v>
       </c>
       <c r="E86">
-        <v>-0.04199311593141782</v>
+        <v>-0.06084715896145348</v>
       </c>
       <c r="F86">
-        <v>-0.05248340261354285</v>
+        <v>-0.008142317859521795</v>
       </c>
       <c r="G86">
-        <v>0.04090411452698747</v>
+        <v>-0.08605048940038357</v>
       </c>
       <c r="H86">
-        <v>-0.07593422936804343</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.10274835237864</v>
+      </c>
+      <c r="I86">
+        <v>0.2282561622135537</v>
+      </c>
+      <c r="J86">
+        <v>0.2655358875863884</v>
+      </c>
+      <c r="K86">
+        <v>-0.2767984469995995</v>
+      </c>
+      <c r="L86">
+        <v>0.1564683641796253</v>
+      </c>
+      <c r="M86">
+        <v>-0.2015360069273723</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.09696666055240849</v>
+        <v>-0.1156322357146203</v>
       </c>
       <c r="C87">
-        <v>-0.06505230328516401</v>
+        <v>-0.06710307182505941</v>
       </c>
       <c r="D87">
-        <v>0.007835350512927748</v>
+        <v>-0.01300451349507556</v>
       </c>
       <c r="E87">
-        <v>-0.176453320005577</v>
+        <v>-0.07485178112095926</v>
       </c>
       <c r="F87">
-        <v>0.0600081705096942</v>
+        <v>0.1805973037789956</v>
       </c>
       <c r="G87">
-        <v>0.05779520962556865</v>
+        <v>-0.1512766695226498</v>
       </c>
       <c r="H87">
-        <v>-0.1225090255717274</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.03830324973620058</v>
+      </c>
+      <c r="I87">
+        <v>0.02941674604431737</v>
+      </c>
+      <c r="J87">
+        <v>-0.0150654518954534</v>
+      </c>
+      <c r="K87">
+        <v>-0.02020786588894719</v>
+      </c>
+      <c r="L87">
+        <v>-0.09710485010346565</v>
+      </c>
+      <c r="M87">
+        <v>-0.1198271148907462</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.04582767460579477</v>
+        <v>-0.05897361695282605</v>
       </c>
       <c r="C88">
-        <v>-0.03890551998172618</v>
+        <v>-0.05373132572381199</v>
       </c>
       <c r="D88">
-        <v>-0.01511250742977478</v>
+        <v>0.02692819415053457</v>
       </c>
       <c r="E88">
-        <v>-0.006415572579222187</v>
+        <v>0.010950702212846</v>
       </c>
       <c r="F88">
-        <v>-0.00962665036111646</v>
+        <v>0.03347115069148602</v>
       </c>
       <c r="G88">
-        <v>0.02347171164179415</v>
+        <v>0.01957083600204295</v>
       </c>
       <c r="H88">
-        <v>0.009210754154377726</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.04611260218508937</v>
+      </c>
+      <c r="I88">
+        <v>0.03907737638038033</v>
+      </c>
+      <c r="J88">
+        <v>-0.02938048337124426</v>
+      </c>
+      <c r="K88">
+        <v>0.01695461637743574</v>
+      </c>
+      <c r="L88">
+        <v>0.005774075481050829</v>
+      </c>
+      <c r="M88">
+        <v>-0.001619229442436426</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.16914095456714</v>
+        <v>-0.2223504951777893</v>
       </c>
       <c r="C89">
-        <v>0.3046411091663722</v>
+        <v>0.3534567998704735</v>
       </c>
       <c r="D89">
-        <v>-0.08495943035015201</v>
+        <v>0.06014684907680185</v>
       </c>
       <c r="E89">
-        <v>-0.09057663426437987</v>
+        <v>-0.06485374244815663</v>
       </c>
       <c r="F89">
-        <v>-0.01237481188306738</v>
+        <v>-0.005943278349608377</v>
       </c>
       <c r="G89">
-        <v>0.04218543928471773</v>
+        <v>0.009859993990480242</v>
       </c>
       <c r="H89">
-        <v>0.02900908216732026</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.01528464998459172</v>
+      </c>
+      <c r="I89">
+        <v>0.05404873480352849</v>
+      </c>
+      <c r="J89">
+        <v>-0.09523003420212243</v>
+      </c>
+      <c r="K89">
+        <v>0.07627307130105164</v>
+      </c>
+      <c r="L89">
+        <v>0.05308753652724071</v>
+      </c>
+      <c r="M89">
+        <v>-0.003901634816251367</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1336566072211117</v>
+        <v>-0.1507291256733026</v>
       </c>
       <c r="C90">
-        <v>0.266983707576195</v>
+        <v>0.2649467073446643</v>
       </c>
       <c r="D90">
-        <v>-0.02337179066472958</v>
+        <v>0.01023194299909562</v>
       </c>
       <c r="E90">
-        <v>-0.06895340895156833</v>
+        <v>-0.02669416972662927</v>
       </c>
       <c r="F90">
-        <v>-0.04000311745025287</v>
+        <v>0.01969718366418727</v>
       </c>
       <c r="G90">
-        <v>0.03577148195761835</v>
+        <v>-0.02721290119187425</v>
       </c>
       <c r="H90">
-        <v>0.0008609424384425333</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.02758471333218505</v>
+      </c>
+      <c r="I90">
+        <v>-0.0002080462215044795</v>
+      </c>
+      <c r="J90">
+        <v>-0.04624899066064603</v>
+      </c>
+      <c r="K90">
+        <v>-0.0111061473658926</v>
+      </c>
+      <c r="L90">
+        <v>-0.03647321605855721</v>
+      </c>
+      <c r="M90">
+        <v>0.03337377733016734</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08486596640267437</v>
+        <v>-0.07444884681494232</v>
       </c>
       <c r="C91">
-        <v>-0.03072481022047031</v>
+        <v>-0.05330892417382823</v>
       </c>
       <c r="D91">
-        <v>-0.01864077218773357</v>
+        <v>0.005793380498252498</v>
       </c>
       <c r="E91">
-        <v>-0.005075713315204266</v>
+        <v>0.003187509909488518</v>
       </c>
       <c r="F91">
-        <v>0.03629797156556682</v>
+        <v>-0.01445291930007263</v>
       </c>
       <c r="G91">
-        <v>-0.1034912675644585</v>
+        <v>0.09154859811992959</v>
       </c>
       <c r="H91">
-        <v>0.02051080253671565</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.04897304514535691</v>
+      </c>
+      <c r="I91">
+        <v>-0.02412776337967586</v>
+      </c>
+      <c r="J91">
+        <v>-0.01758004285659587</v>
+      </c>
+      <c r="K91">
+        <v>-0.002326449919691446</v>
+      </c>
+      <c r="L91">
+        <v>0.02525309085934819</v>
+      </c>
+      <c r="M91">
+        <v>0.02947297122556686</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1491811564278682</v>
+        <v>-0.1712036629448323</v>
       </c>
       <c r="C92">
-        <v>0.3079934087718</v>
+        <v>0.3016462781428453</v>
       </c>
       <c r="D92">
-        <v>-0.06337209758748724</v>
+        <v>0.01963750539156324</v>
       </c>
       <c r="E92">
-        <v>-0.0207233686399362</v>
+        <v>-0.05211260663833771</v>
       </c>
       <c r="F92">
-        <v>-0.06680502988252765</v>
+        <v>-0.01926336241363465</v>
       </c>
       <c r="G92">
-        <v>0.001207554079860352</v>
+        <v>0.03915749680364732</v>
       </c>
       <c r="H92">
-        <v>0.06412817696032905</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.03153275613098266</v>
+      </c>
+      <c r="I92">
+        <v>0.01876796958679612</v>
+      </c>
+      <c r="J92">
+        <v>-0.03578053884611471</v>
+      </c>
+      <c r="K92">
+        <v>0.01072737332264879</v>
+      </c>
+      <c r="L92">
+        <v>-0.0002647601540014109</v>
+      </c>
+      <c r="M92">
+        <v>-0.01079955554061473</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1367051904827447</v>
+        <v>-0.1643833121110768</v>
       </c>
       <c r="C93">
-        <v>0.2480757837242909</v>
+        <v>0.2872119227835777</v>
       </c>
       <c r="D93">
-        <v>-0.03339666971012611</v>
+        <v>0.008598641399317672</v>
       </c>
       <c r="E93">
-        <v>-0.02247757661440273</v>
+        <v>-0.007873064111015344</v>
       </c>
       <c r="F93">
-        <v>-0.03103781189987143</v>
+        <v>-0.008766250818214064</v>
       </c>
       <c r="G93">
-        <v>0.05654903143166307</v>
+        <v>-0.01485777833767018</v>
       </c>
       <c r="H93">
-        <v>0.009577053613080432</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.01323061960929636</v>
+      </c>
+      <c r="I93">
+        <v>0.01411315216206564</v>
+      </c>
+      <c r="J93">
+        <v>0.02519601524502332</v>
+      </c>
+      <c r="K93">
+        <v>0.0154023036359636</v>
+      </c>
+      <c r="L93">
+        <v>-0.02352089149709056</v>
+      </c>
+      <c r="M93">
+        <v>-0.01161123287235024</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.08540442227606021</v>
+        <v>-0.104192527864788</v>
       </c>
       <c r="C94">
-        <v>-0.0623386930178197</v>
+        <v>-0.0773642601247211</v>
       </c>
       <c r="D94">
-        <v>-0.02434816585127368</v>
+        <v>0.02227694317549567</v>
       </c>
       <c r="E94">
-        <v>-0.01025906665858815</v>
+        <v>-0.01033319418353348</v>
       </c>
       <c r="F94">
-        <v>0.06244515605009842</v>
+        <v>-0.04769686952451524</v>
       </c>
       <c r="G94">
-        <v>-0.1319167948926789</v>
+        <v>0.1249832098444223</v>
       </c>
       <c r="H94">
-        <v>0.05962767306023545</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.03993663956958172</v>
+      </c>
+      <c r="I94">
+        <v>-0.02468051641732521</v>
+      </c>
+      <c r="J94">
+        <v>0.001317985026659133</v>
+      </c>
+      <c r="K94">
+        <v>0.02837621424951861</v>
+      </c>
+      <c r="L94">
+        <v>0.05925131183660048</v>
+      </c>
+      <c r="M94">
+        <v>-0.01235924830015213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.1009478883153769</v>
+        <v>-0.1345478111009722</v>
       </c>
       <c r="C95">
-        <v>-0.1155807094758403</v>
+        <v>-0.07670193952623305</v>
       </c>
       <c r="D95">
-        <v>-0.09025463997474555</v>
+        <v>0.03497650681138659</v>
       </c>
       <c r="E95">
-        <v>-0.006910332367499633</v>
+        <v>-0.07124690931871783</v>
       </c>
       <c r="F95">
-        <v>-0.04646073199484124</v>
+        <v>0.01184951318187679</v>
       </c>
       <c r="G95">
-        <v>0.02007218780137437</v>
+        <v>-0.1614178095493396</v>
       </c>
       <c r="H95">
-        <v>-0.05418904517576915</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.1232352425246266</v>
+      </c>
+      <c r="I95">
+        <v>0.03033135445716187</v>
+      </c>
+      <c r="J95">
+        <v>-0.02722576940585119</v>
+      </c>
+      <c r="K95">
+        <v>-0.00285602285061034</v>
+      </c>
+      <c r="L95">
+        <v>0.1194840761348565</v>
+      </c>
+      <c r="M95">
+        <v>-0.5181975903168998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3199,88 +4639,148 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.3180986082730416</v>
+        <v>-0.1777132589824044</v>
       </c>
       <c r="C97">
-        <v>-0.002694248080162347</v>
+        <v>-0.007951129928497896</v>
       </c>
       <c r="D97">
-        <v>0.8623874720648076</v>
+        <v>-0.8482810589624264</v>
       </c>
       <c r="E97">
-        <v>0.1911312092495989</v>
+        <v>0.404275117669135</v>
       </c>
       <c r="F97">
-        <v>-0.07393926403464229</v>
+        <v>0.04046286053780546</v>
       </c>
       <c r="G97">
-        <v>0.03727372666599214</v>
+        <v>-0.06043166329637799</v>
       </c>
       <c r="H97">
-        <v>-0.03842115196750569</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.04536687303931694</v>
+      </c>
+      <c r="I97">
+        <v>0.05612129619520378</v>
+      </c>
+      <c r="J97">
+        <v>-0.07527872611228507</v>
+      </c>
+      <c r="K97">
+        <v>-0.007590198863883732</v>
+      </c>
+      <c r="L97">
+        <v>0.02513894168697676</v>
+      </c>
+      <c r="M97">
+        <v>0.02015496852488551</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2448472732295466</v>
+        <v>-0.2565964124319262</v>
       </c>
       <c r="C98">
-        <v>-0.1228490523424588</v>
+        <v>-0.1325034889640473</v>
       </c>
       <c r="D98">
-        <v>-0.1778667787665975</v>
+        <v>0.1257928937540462</v>
       </c>
       <c r="E98">
-        <v>0.4067440453131295</v>
+        <v>0.2239713362787371</v>
       </c>
       <c r="F98">
-        <v>-0.06289229937053924</v>
+        <v>-0.276152784453211</v>
       </c>
       <c r="G98">
-        <v>0.5001018146171551</v>
+        <v>-0.3084896035325528</v>
       </c>
       <c r="H98">
-        <v>0.2501285470908345</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.1866596973656116</v>
+      </c>
+      <c r="I98">
+        <v>0.2133457946157629</v>
+      </c>
+      <c r="J98">
+        <v>0.3399392852129144</v>
+      </c>
+      <c r="K98">
+        <v>0.4424225432024502</v>
+      </c>
+      <c r="L98">
+        <v>-0.2614386331054752</v>
+      </c>
+      <c r="M98">
+        <v>0.1500915743070224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.07395676821158363</v>
+        <v>-0.07715282261681469</v>
       </c>
       <c r="C99">
-        <v>-0.06288225743741412</v>
+        <v>-0.06224921421271059</v>
       </c>
       <c r="D99">
-        <v>0.05711846598235112</v>
+        <v>-0.02008788611039804</v>
       </c>
       <c r="E99">
-        <v>-0.1393671887694236</v>
+        <v>-0.05110551816592902</v>
       </c>
       <c r="F99">
-        <v>0.6370721895595353</v>
+        <v>0.04128244010236566</v>
       </c>
       <c r="G99">
-        <v>0.2970196900949229</v>
+        <v>0.05807839072214124</v>
       </c>
       <c r="H99">
-        <v>0.4605284000518707</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.3830374700682262</v>
+      </c>
+      <c r="I99">
+        <v>0.1988440783348799</v>
+      </c>
+      <c r="J99">
+        <v>0.06337708844789221</v>
+      </c>
+      <c r="K99">
+        <v>0.2637111281544062</v>
+      </c>
+      <c r="L99">
+        <v>0.6302162780816258</v>
+      </c>
+      <c r="M99">
+        <v>-0.05318639352434212</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.04743752370554533</v>
+        <v>-0.04515473150154621</v>
       </c>
       <c r="C101">
-        <v>-0.007716837768658478</v>
+        <v>-0.02198753480828627</v>
       </c>
       <c r="D101">
-        <v>-0.01234270457507095</v>
+        <v>0.01172851315139404</v>
       </c>
       <c r="E101">
-        <v>-0.02816784023292299</v>
+        <v>-0.02527921652451344</v>
       </c>
       <c r="F101">
-        <v>-0.03911844117808518</v>
+        <v>0.03821873316205531</v>
       </c>
       <c r="G101">
-        <v>-0.0156450155910687</v>
+        <v>0.04657061860650986</v>
       </c>
       <c r="H101">
-        <v>-0.008780809031254588</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.06045321033466126</v>
+      </c>
+      <c r="I101">
+        <v>0.007061838392362052</v>
+      </c>
+      <c r="J101">
+        <v>0.01853079673619463</v>
+      </c>
+      <c r="K101">
+        <v>0.005310169583879741</v>
+      </c>
+      <c r="L101">
+        <v>-0.02058018359322934</v>
+      </c>
+      <c r="M101">
+        <v>-0.01909899956695934</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
